--- a/docs/StructureDefinition-ck-obs.xlsx
+++ b/docs/StructureDefinition-ck-obs.xlsx
@@ -572,7 +572,7 @@
     <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
   </si>
   <si>
-    <t>unknown</t>
+    <t>final</t>
   </si>
   <si>
     <t>required</t>
